--- a/logs.xlsx
+++ b/logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 week project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7DB683-9808-469E-A7D2-7C9E29E3EDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247946E-34C3-410C-B2FD-53852690D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,21 +411,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -433,7 +433,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -441,7 +441,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -449,7 +449,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -457,7 +457,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0247946E-34C3-410C-B2FD-53852690D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AEDD3-6D83-4455-9504-0C476EE1B34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AEDD3-6D83-4455-9504-0C476EE1B34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977636F3-3797-48DB-BB34-542B134FEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="classes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -64,6 +65,132 @@
   </si>
   <si>
     <t>14 different crops/plants</t>
+  </si>
+  <si>
+    <t>PlantVillage Dataset Class Distribution</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Image Count</t>
+  </si>
+  <si>
+    <t>Dataset Percentage (%)</t>
+  </si>
+  <si>
+    <t>Orange: Haunglongbing (Citrus greening)</t>
+  </si>
+  <si>
+    <t>Tomato: Yellow Leaf Curl Virus</t>
+  </si>
+  <si>
+    <t>Soybean: Healthy</t>
+  </si>
+  <si>
+    <t>Peach: Bacterial spot</t>
+  </si>
+  <si>
+    <t>Tomato: Bacterial spot</t>
+  </si>
+  <si>
+    <t>Tomato: Late blight</t>
+  </si>
+  <si>
+    <t>Squash: Powdery mildew</t>
+  </si>
+  <si>
+    <t>Tomato: Septoria leaf spot</t>
+  </si>
+  <si>
+    <t>Tomato: Spider mites (Two-spotted)</t>
+  </si>
+  <si>
+    <t>Apple: Healthy</t>
+  </si>
+  <si>
+    <t>Tomato: Healthy</t>
+  </si>
+  <si>
+    <t>Blueberry: Healthy</t>
+  </si>
+  <si>
+    <t>Pepper, bell: Healthy</t>
+  </si>
+  <si>
+    <t>Tomato: Target Spot</t>
+  </si>
+  <si>
+    <t>Grape: Esca (Black Measles)</t>
+  </si>
+  <si>
+    <t>Corn (maize): Common rust</t>
+  </si>
+  <si>
+    <t>Grape: Black rot</t>
+  </si>
+  <si>
+    <t>Corn (maize): Healthy</t>
+  </si>
+  <si>
+    <t>Strawberry: Leaf scorch</t>
+  </si>
+  <si>
+    <t>Grape: Leaf blight (Isariopsis)</t>
+  </si>
+  <si>
+    <t>Cherry: Powdery mildew</t>
+  </si>
+  <si>
+    <t>Tomato: Early blight</t>
+  </si>
+  <si>
+    <t>Potato: Early blight</t>
+  </si>
+  <si>
+    <t>Potato: Late blight</t>
+  </si>
+  <si>
+    <t>Pepper, bell: Bacterial spot</t>
+  </si>
+  <si>
+    <t>Corn (maize): Northern Leaf Blight</t>
+  </si>
+  <si>
+    <t>Tomato: Leaf Mold</t>
+  </si>
+  <si>
+    <t>Cherry: Healthy</t>
+  </si>
+  <si>
+    <t>Apple: Apple scab</t>
+  </si>
+  <si>
+    <t>Apple: Black rot</t>
+  </si>
+  <si>
+    <t>Corn (maize): Gray leaf spot</t>
+  </si>
+  <si>
+    <t>Strawberry: Healthy</t>
+  </si>
+  <si>
+    <t>Grape: Healthy</t>
+  </si>
+  <si>
+    <t>Tomato: Mosaic virus</t>
+  </si>
+  <si>
+    <t>Raspberry: Healthy</t>
+  </si>
+  <si>
+    <t>Peach: Healthy</t>
+  </si>
+  <si>
+    <t>Apple: Cedar apple rust</t>
+  </si>
+  <si>
+    <t>Potato: Healthy</t>
   </si>
 </sst>
 </file>
@@ -107,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -116,6 +243,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -396,12 +529,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1376D5A6-4A5C-4C40-B995-AD4B5C5FEE7F}">
+  <we:reference id="WA104379279" version="2.1.0.0" store="Omex" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104379279" version="2.1.0.0" store="WA104379279" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,4 +623,474 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF84F8A7-D218-43F3-A52C-DA46515BEF87}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5507</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5357</v>
+      </c>
+      <c r="C4" s="5">
+        <v>9.8599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5090</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.3700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2297</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2127</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1909</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1835</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.3799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1771</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1676</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1645</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1591</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1502</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1478</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1404</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1383</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1192</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1162</v>
+      </c>
+      <c r="C20" s="5">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1109</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1076</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1052</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1">
+        <v>997</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1">
+        <v>985</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1">
+        <v>952</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1">
+        <v>854</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1">
+        <v>630</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1">
+        <v>621</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <v>513</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1">
+        <v>456</v>
+      </c>
+      <c r="C34" s="5">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1">
+        <v>423</v>
+      </c>
+      <c r="C35" s="5">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>373</v>
+      </c>
+      <c r="C36" s="5">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="1">
+        <v>371</v>
+      </c>
+      <c r="C37" s="5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1">
+        <v>360</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1">
+        <v>275</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1">
+        <v>152</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4">
+        <v>54305</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977636F3-3797-48DB-BB34-542B134FEDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC6570-D47D-43B9-ABF7-CA6D8FB88EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
+    <sheet name="baseline" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -191,6 +192,96 @@
   </si>
   <si>
     <t>Potato: Healthy</t>
+  </si>
+  <si>
+    <t>Transformer Training Performance Summary</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Val Accuracy</t>
+  </si>
+  <si>
+    <t>Val F1 (Macro)</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Initial Convergence</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Improving</t>
+  </si>
+  <si>
+    <t>Peak Performance</t>
+  </si>
+  <si>
+    <t>Performance Drop</t>
+  </si>
+  <si>
+    <t>Fluctuation</t>
+  </si>
+  <si>
+    <t>Recovering</t>
+  </si>
+  <si>
+    <t>High Recovery</t>
+  </si>
+  <si>
+    <t>Gradient Instability</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Significant Drop</t>
+  </si>
+  <si>
+    <t>Lowest Point</t>
+  </si>
+  <si>
+    <t>Final Recovery</t>
+  </si>
+  <si>
+    <t>Final Model Evaluation Summary (Test Set)</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>Final Test Accuracy</t>
+  </si>
+  <si>
+    <t>High overall classification success rate across the dataset.</t>
+  </si>
+  <si>
+    <t>Final Test F1 (Macro)</t>
+  </si>
+  <si>
+    <t>Balanced performance across all 38 classes, accounting for class imbalance.</t>
+  </si>
+  <si>
+    <t>Generalization Gap</t>
+  </si>
+  <si>
+    <t>~0.4%</t>
+  </si>
+  <si>
+    <t>Minimal difference between Val (0.776) and Test (0.772) indicates no significant overfitting.</t>
   </si>
 </sst>
 </file>
@@ -242,13 +333,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -629,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF84F8A7-D218-43F3-A52C-DA46515BEF87}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -641,11 +732,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -662,10 +753,10 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>5507</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.1014</v>
       </c>
     </row>
@@ -673,10 +764,10 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>5357</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>9.8599999999999993E-2</v>
       </c>
     </row>
@@ -684,10 +775,10 @@
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>5090</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
@@ -695,10 +786,10 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2297</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
@@ -706,10 +797,10 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2127</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3.9199999999999999E-2</v>
       </c>
     </row>
@@ -717,10 +808,10 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1909</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
@@ -728,10 +819,10 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1835</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3.3799999999999997E-2</v>
       </c>
     </row>
@@ -739,10 +830,10 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1771</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
@@ -750,10 +841,10 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1676</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3.09E-2</v>
       </c>
     </row>
@@ -761,10 +852,10 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1645</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
@@ -772,10 +863,10 @@
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1591</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>2.93E-2</v>
       </c>
     </row>
@@ -783,10 +874,10 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1502</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2.7699999999999999E-2</v>
       </c>
     </row>
@@ -794,10 +885,10 @@
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1478</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
@@ -805,10 +896,10 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1404</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
@@ -816,10 +907,10 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1383</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
@@ -827,10 +918,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>1192</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -838,10 +929,10 @@
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>1180</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
@@ -849,10 +940,10 @@
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1162</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
@@ -860,10 +951,10 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1109</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
@@ -871,10 +962,10 @@
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1076</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>1.9800000000000002E-2</v>
       </c>
     </row>
@@ -882,10 +973,10 @@
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1052</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>1.9400000000000001E-2</v>
       </c>
     </row>
@@ -893,10 +984,10 @@
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1000</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -904,10 +995,10 @@
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>1000</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -915,10 +1006,10 @@
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>1000</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -929,7 +1020,7 @@
       <c r="B27" s="1">
         <v>997</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>1.84E-2</v>
       </c>
     </row>
@@ -940,7 +1031,7 @@
       <c r="B28" s="1">
         <v>985</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
@@ -951,7 +1042,7 @@
       <c r="B29" s="1">
         <v>952</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
@@ -962,7 +1053,7 @@
       <c r="B30" s="1">
         <v>854</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>1.5699999999999999E-2</v>
       </c>
     </row>
@@ -973,7 +1064,7 @@
       <c r="B31" s="1">
         <v>630</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
@@ -984,7 +1075,7 @@
       <c r="B32" s="1">
         <v>621</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>1.14E-2</v>
       </c>
     </row>
@@ -995,7 +1086,7 @@
       <c r="B33" s="1">
         <v>513</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
@@ -1006,7 +1097,7 @@
       <c r="B34" s="1">
         <v>456</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>8.3999999999999995E-3</v>
       </c>
     </row>
@@ -1017,7 +1108,7 @@
       <c r="B35" s="1">
         <v>423</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -1028,7 +1119,7 @@
       <c r="B36" s="1">
         <v>373</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
@@ -1039,7 +1130,7 @@
       <c r="B37" s="1">
         <v>371</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
@@ -1050,7 +1141,7 @@
       <c r="B38" s="1">
         <v>360</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>6.6E-3</v>
       </c>
     </row>
@@ -1061,7 +1152,7 @@
       <c r="B39" s="1">
         <v>275</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
@@ -1072,7 +1163,7 @@
       <c r="B40" s="1">
         <v>152</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>2.8E-3</v>
       </c>
     </row>
@@ -1080,10 +1171,10 @@
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>54305</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1093,4 +1184,525 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DEBF3-2DAC-42DF-9C73-E0345E8C12E3}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>552.9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>552.6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>554.29999999999995</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="D7" s="1">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>554.79999999999995</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>555</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>554.6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>554.9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>555.4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.745</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="D13" s="1">
+        <v>554.70000000000005</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D14" s="1">
+        <v>555</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>555.29999999999995</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.751</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>554.4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D17" s="1">
+        <v>553.6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>553.9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>553.6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>553.6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.623</v>
+      </c>
+      <c r="D21" s="1">
+        <v>554.1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>554.1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>553.5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>552.9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>553</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>553</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC6570-D47D-43B9-ABF7-CA6D8FB88EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A71B0-4857-419E-8B21-5FB06555160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
-    <sheet name="baseline" sheetId="3" r:id="rId3"/>
+    <sheet name="PlantVillage baseline Vit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -346,7 +346,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -645,7 +676,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF84F8A7-D218-43F3-A52C-DA46515BEF87}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,7 +1213,40 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B40">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5075211B-6B8B-42D6-B9B9-270CB7247B72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5075211B-6B8B-42D6-B9B9-270CB7247B72}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B40</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1191,17 +1255,17 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1703,6 +1767,47 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:C27">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{A3544A5A-8897-4A56-A3D7-13445EEB6609}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A3:A27 D3:D27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A71B0-4857-419E-8B21-5FB06555160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7FAD6-C046-4052-8226-4E6F90E6D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -364,16 +364,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,7 +1245,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,8 +1767,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,16 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC7FAD6-C046-4052-8226-4E6F90E6D059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF213B7-BFDD-4B17-AB61-527918867CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
-    <sheet name="PlantVillage baseline Vit" sheetId="3" r:id="rId3"/>
+    <sheet name="PlantVillage Vit" sheetId="3" r:id="rId3"/>
+    <sheet name="PlantVillage CRNN" sheetId="4" r:id="rId4"/>
+    <sheet name="PlantVillage GCNN" sheetId="5" r:id="rId5"/>
+    <sheet name="PlantVillage GRNN" sheetId="6" r:id="rId6"/>
+    <sheet name="4 models comparrison" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -194,9 +201,6 @@
     <t>Potato: Healthy</t>
   </si>
   <si>
-    <t>Transformer Training Performance Summary</t>
-  </si>
-  <si>
     <t>Epoch</t>
   </si>
   <si>
@@ -251,43 +255,127 @@
     <t>Final Recovery</t>
   </si>
   <si>
-    <t>Final Model Evaluation Summary (Test Set)</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Interpretation</t>
-  </si>
-  <si>
-    <t>Final Test Accuracy</t>
-  </si>
-  <si>
-    <t>High overall classification success rate across the dataset.</t>
-  </si>
-  <si>
-    <t>Final Test F1 (Macro)</t>
-  </si>
-  <si>
-    <t>Balanced performance across all 38 classes, accounting for class imbalance.</t>
-  </si>
-  <si>
-    <t>Generalization Gap</t>
-  </si>
-  <si>
-    <t>~0.4%</t>
-  </si>
-  <si>
-    <t>Minimal difference between Val (0.776) and Test (0.772) indicates no significant overfitting.</t>
+    <t>Significant Gain</t>
+  </si>
+  <si>
+    <t>Minor Fluctuation</t>
+  </si>
+  <si>
+    <t>Approaching Peak</t>
+  </si>
+  <si>
+    <t>High Performance</t>
+  </si>
+  <si>
+    <t>Steady Growth</t>
+  </si>
+  <si>
+    <t>PEAK PERFORMANCE</t>
+  </si>
+  <si>
+    <t>Final Result</t>
+  </si>
+  <si>
+    <t>CRNN Final Test Evaluation</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Global classification success rate.</t>
+  </si>
+  <si>
+    <t>Test F1 (Macro)</t>
+  </si>
+  <si>
+    <t>Balanced performance across all 38 classes.</t>
+  </si>
+  <si>
+    <t>Entry Point</t>
+  </si>
+  <si>
+    <t>High Gain</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Crossing 80%</t>
+  </si>
+  <si>
+    <t>Local Minimum</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Strong Gain</t>
+  </si>
+  <si>
+    <t>Peak F1 Score</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>Final State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantVillage GCNN Performance Summary </t>
+  </si>
+  <si>
+    <t>GCNN Final Test Evaluation</t>
+  </si>
+  <si>
+    <t>Key Insight</t>
+  </si>
+  <si>
+    <t>Overall success rate across all test images.</t>
+  </si>
+  <si>
+    <t>Balanced performance accounting for all 38 classes.</t>
+  </si>
+  <si>
+    <t>Overall classification success rate across 38 classes.</t>
+  </si>
+  <si>
+    <t>Balanced performance across classes, accounting for imbalance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test F1 (Macro)</t>
+  </si>
+  <si>
+    <t>PlantVillage Vit Training Performance Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantVillage  CRNN Performance Summary </t>
+  </si>
+  <si>
+    <t>Vit Final Test Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t>Average of Val Accuracy</t>
+  </si>
+  <si>
+    <t>Average of Val F1 (Macro)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,11 +430,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -378,6 +522,2595 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[logs.xlsx]PlantVillage GCNN!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PlantVillage GCNN'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Val Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.79194399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB10-4B0C-9415-4903AC1A0D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PlantVillage GCNN'!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average of Val F1 (Macro)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PlantVillage GCNN'!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.72228800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB10-4B0C-9415-4903AC1A0D54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1898634991"/>
+        <c:axId val="1898633551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1898634991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1898633551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1898633551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1898634991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56452422483484943"/>
+          <c:y val="5.9151032901889902E-2"/>
+          <c:w val="0.41253042681304386"/>
+          <c:h val="0.31365850102070569"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent4">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PlantVillage GCNN'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'PlantVillage GCNN'!$A$3:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'PlantVillage GCNN'!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>342.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>199.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>197.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>196.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>203.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>209.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C75-4A1C-82C1-CC7ED12E0EB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1894649023"/>
+        <c:axId val="1894652383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1894649023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894652383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1894652383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894649023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48F4E29-07BB-7CAE-83F3-189237FC1EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2042160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366D6669-D368-E6C1-0B2F-4025D694D5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="46046.807220254632" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{C3F4D4CC-6F2C-4405-9F65-20DAAD87106A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E27" sheet="PlantVillage GCNN"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Epoch" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25" count="25">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Val Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.51919999999999999" maxValue="0.85860000000000003"/>
+    </cacheField>
+    <cacheField name="Val F1 (Macro)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.35980000000000001" maxValue="0.80859999999999999"/>
+    </cacheField>
+    <cacheField name="Time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="196.3" maxValue="342.7"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <x v="0"/>
+    <n v="0.51919999999999999"/>
+    <n v="0.35980000000000001"/>
+    <n v="342.7"/>
+    <s v="Entry Point"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.65339999999999998"/>
+    <n v="0.5413"/>
+    <n v="200.3"/>
+    <s v="High Gain"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.69299999999999995"/>
+    <n v="0.58409999999999995"/>
+    <n v="201.6"/>
+    <s v="Consistent"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.71919999999999995"/>
+    <n v="0.63339999999999996"/>
+    <n v="201.6"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.74309999999999998"/>
+    <n v="0.66810000000000003"/>
+    <n v="207.2"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.76590000000000003"/>
+    <n v="0.6855"/>
+    <n v="205.8"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.78269999999999995"/>
+    <n v="0.71640000000000004"/>
+    <n v="198.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.77900000000000003"/>
+    <n v="0.71179999999999999"/>
+    <n v="200.3"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.80200000000000005"/>
+    <n v="0.73140000000000005"/>
+    <n v="201.1"/>
+    <s v="Crossing 80%"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.8"/>
+    <n v="0.74060000000000004"/>
+    <n v="200.8"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.81310000000000004"/>
+    <n v="0.75549999999999995"/>
+    <n v="201.2"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.81820000000000004"/>
+    <n v="0.76049999999999995"/>
+    <n v="198"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.80530000000000002"/>
+    <n v="0.72760000000000002"/>
+    <n v="198.5"/>
+    <s v="Local Minimum"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.82040000000000002"/>
+    <n v="0.7641"/>
+    <n v="199.4"/>
+    <s v="Recovery"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.82740000000000002"/>
+    <n v="0.77129999999999999"/>
+    <n v="197.6"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.80169999999999997"/>
+    <n v="0.72970000000000002"/>
+    <n v="196.9"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.83499999999999996"/>
+    <n v="0.7732"/>
+    <n v="199.9"/>
+    <s v="Strong Gain"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0.84809999999999997"/>
+    <n v="0.79879999999999995"/>
+    <n v="199"/>
+    <s v="Strong Gain"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0.84030000000000005"/>
+    <n v="0.77880000000000005"/>
+    <n v="200.5"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0.85580000000000001"/>
+    <n v="0.80859999999999999"/>
+    <n v="199.3"/>
+    <s v="Peak F1 Score"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0.84940000000000004"/>
+    <n v="0.79700000000000004"/>
+    <n v="203.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0.85360000000000003"/>
+    <n v="0.80310000000000004"/>
+    <n v="209.8"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0.8569"/>
+    <n v="0.80489999999999995"/>
+    <n v="198.9"/>
+    <s v="Plateau"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0.85729999999999995"/>
+    <n v="0.80449999999999999"/>
+    <n v="199.1"/>
+    <s v="Plateau"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0.85860000000000003"/>
+    <n v="0.80720000000000003"/>
+    <n v="196.3"/>
+    <s v="Final State"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15CC8162-1B8F-49A5-A20D-F2C3A9ADEA7C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="H7:I8" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Val Accuracy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Val F1 (Macro)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DEBF3-2DAC-42DF-9C73-E0345E8C12E3}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,52 +3988,53 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="54.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1314,19 +4048,19 @@
         <v>552.9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="1">
+        <v>103</v>
+      </c>
+      <c r="H3" s="4">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1340,19 +4074,19 @@
         <v>552.6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1">
+        <v>104</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.68940000000000001</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1366,19 +4100,13 @@
         <v>554.29999999999995</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1392,10 +4120,10 @@
         <v>554.29999999999995</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1409,10 +4137,10 @@
         <v>555.20000000000005</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1426,10 +4154,10 @@
         <v>554.79999999999995</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1443,10 +4171,10 @@
         <v>555</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1460,10 +4188,10 @@
         <v>554.6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1477,10 +4205,10 @@
         <v>554.9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1494,10 +4222,10 @@
         <v>555.4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1511,10 +4239,10 @@
         <v>554.70000000000005</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1528,10 +4256,10 @@
         <v>555</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1545,10 +4273,10 @@
         <v>555.29999999999995</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1562,7 +4290,7 @@
         <v>554.4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1579,7 +4307,7 @@
         <v>553.6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1596,7 +4324,7 @@
         <v>553.9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,7 +4341,7 @@
         <v>553.6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1630,7 +4358,7 @@
         <v>553.6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,7 +4375,7 @@
         <v>554.1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1664,7 +4392,7 @@
         <v>554.1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,7 +4409,7 @@
         <v>553.5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,7 +4426,7 @@
         <v>553.79999999999995</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1715,7 +4443,7 @@
         <v>552.9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1732,7 +4460,7 @@
         <v>553</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1749,7 +4477,7 @@
         <v>553</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1758,8 +4486,8 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C27">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Symbols2">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
@@ -1767,15 +4495,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{A3544A5A-8897-4A56-A3D7-13445EEB6609}">
+          <x14:cfRule type="iconSet" priority="4" id="{A3544A5A-8897-4A56-A3D7-13445EEB6609}">
             <x14:iconSet iconSet="5Boxes">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1800,4 +4528,1197 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D7786C-B0A4-4958-828B-D0C3C9FDF8EE}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="37.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>424.2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="D4" s="1">
+        <v>182.8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>181.1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>182.8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>180</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D9" s="1">
+        <v>180.8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180.9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>181.2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>183.2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>184.5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>182.8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D15" s="1">
+        <v>183.5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>183.4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D17" s="1">
+        <v>182.3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>182.7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>182</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>183.2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>182</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D22" s="1">
+        <v>182.2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>182.1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>180.6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>181.1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>180.3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>180.5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:C27">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="uniqueValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{2A378FBD-FA9E-4248-BD43-166F7160BF93}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A3:A27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{F5841440-4A62-4FAC-8DE3-A9A581B2A81C}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D3:D27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2C2D19-E9A5-470E-95D0-484182693731}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>342.7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.5413</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200.3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>207.2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.6855</v>
+      </c>
+      <c r="D8" s="1">
+        <v>205.8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.79194399999999998</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.72228800000000004</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>198.1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200.3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201.1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>200.8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="D13" s="1">
+        <v>201.2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>198</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.80530000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>198.5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.7641</v>
+      </c>
+      <c r="D16" s="1">
+        <v>199.4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>197.6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.80169999999999997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>196.9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.7732</v>
+      </c>
+      <c r="D19" s="1">
+        <v>199.9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="D20" s="1">
+        <v>199</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="D21" s="1">
+        <v>200.5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>199.3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D23" s="1">
+        <v>203.1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="D24" s="1">
+        <v>209.8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.8569</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="D25" s="1">
+        <v>198.9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="D27" s="1">
+        <v>196.3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:C27">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E27">
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{D8F57CFA-3A36-47C5-8757-57AD258C8E15}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A3:A27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{A95D22A0-265A-47BB-9FE5-D17810A97D5A}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D3:D27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9859A-4B85-4EE8-83C5-75878261B779}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A6EA4-E7AC-4C6F-9608-68BAFA5BEDB2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF213B7-BFDD-4B17-AB61-527918867CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C20B0-278A-4285-83F5-2EE46C6E2D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="PlantVillage Vit" sheetId="3" r:id="rId3"/>
     <sheet name="PlantVillage CRNN" sheetId="4" r:id="rId4"/>
     <sheet name="PlantVillage GCNN" sheetId="5" r:id="rId5"/>
-    <sheet name="PlantVillage GRNN" sheetId="6" r:id="rId6"/>
+    <sheet name="PlantVillage GRCNN" sheetId="6" r:id="rId6"/>
     <sheet name="4 models comparrison" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'4 models comparrison'!$D$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'4 models comparrison'!$D$3:$D$6</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'4 models comparrison'!$D$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'4 models comparrison'!$D$3:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="144">
   <si>
     <t>Dataset Technical Profile</t>
   </si>
@@ -367,6 +378,105 @@
   </si>
   <si>
     <t>Average of Val F1 (Macro)</t>
+  </si>
+  <si>
+    <t>Initializing</t>
+  </si>
+  <si>
+    <t>Rapid Learning</t>
+  </si>
+  <si>
+    <t>Progressing</t>
+  </si>
+  <si>
+    <t>Crossing 85%</t>
+  </si>
+  <si>
+    <t>Final State (Best)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlantVillage GRCNN Performance Summary </t>
+  </si>
+  <si>
+    <t>GRCNN Final Test Evaluation</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Strong classification performance, outperforming both the GCNN and ViT baseline models.</t>
+  </si>
+  <si>
+    <t>Macro F1</t>
+  </si>
+  <si>
+    <t>High reliability across the 38 plant disease classes, indicating effective handling of class imbalance.</t>
+  </si>
+  <si>
+    <t>Average of Time (s)</t>
+  </si>
+  <si>
+    <t>Average Time /epoch</t>
+  </si>
+  <si>
+    <t>Consolidated Model Performance Table</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Avg Val Accuracy</t>
+  </si>
+  <si>
+    <t>Avg Val F1 (Macro)</t>
+  </si>
+  <si>
+    <t>Avg Time/Epoch (s)</t>
+  </si>
+  <si>
+    <t>ViT</t>
+  </si>
+  <si>
+    <t>CRNN</t>
+  </si>
+  <si>
+    <t>GCNN</t>
+  </si>
+  <si>
+    <t>GRCNN</t>
+  </si>
+  <si>
+    <t>Final Model Comparison: Performance Metrics</t>
+  </si>
+  <si>
+    <t>Model Architecture</t>
+  </si>
+  <si>
+    <t>Test Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Test F1 (Macro) (%)</t>
+  </si>
+  <si>
+    <t>Primary Advantage</t>
+  </si>
+  <si>
+    <t>Superior sequential &amp; spatial feature extraction.</t>
+  </si>
+  <si>
+    <t>Best graph-based approach; utilizes recurrent memory.</t>
+  </si>
+  <si>
+    <t>Effective spatial relationship modeling on graphs.</t>
+  </si>
+  <si>
+    <t>ViT (Baseline)</t>
+  </si>
+  <si>
+    <t>Global attention mechanism (baseline performance).</t>
   </si>
 </sst>
 </file>
@@ -374,9 +484,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +496,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -410,10 +527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,21 +545,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -511,6 +635,38 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -537,132 +693,76 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[logs.xlsx]PlantVillage GCNN!PivotTable1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="1"/>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="1" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6582914572864312E-3"/>
+          <c:y val="3.0899961375048281E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -674,11 +774,140 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PlantVillage GCNN'!$H$7</c:f>
+              <c:f>'4 models comparrison'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Val Accuracy</c:v>
+                  <c:v>Avg Val Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4 models comparrison'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ViT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GRCNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 models comparrison'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79420000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A9C-4EA2-871F-FF9B74B90BBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 models comparrison'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Val F1 (Macro)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -686,7 +915,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -755,52 +984,334 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:f>'4 models comparrison'!$A$3:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>ViT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GRCNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:f>'4 models comparrison'!$C$3:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79194399999999998</c:v>
+                  <c:v>0.59789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73209999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB10-4B0C-9415-4903AC1A0D54}"/>
+              <c16:uniqueId val="{00000001-7A9C-4EA2-871F-FF9B74B90BBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1056757520"/>
+        <c:axId val="1056754640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1056757520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056754640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1056754640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1056757520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.55361106714675745"/>
+          <c:y val="5.8033533757295384E-2"/>
+          <c:w val="0.42250969413999129"/>
+          <c:h val="0.16178270639603926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="1"/>
+              <a:t>Testing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="1" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0904438227272851E-2"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2385022385022386E-2"/>
+          <c:y val="0.17736111111111111"/>
+          <c:w val="0.95522995522995524"/>
+          <c:h val="0.57052384076990381"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PlantVillage GCNN'!$I$7</c:f>
+              <c:f>'4 models comparrison'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average of Val F1 (Macro)</c:v>
+                  <c:v>Test Accuracy (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -868,30 +1379,177 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PlantVillage GCNN'!$H$8</c:f>
+              <c:f>'4 models comparrison'!$G$3:$G$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRCNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ViT (Baseline)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PlantVillage GCNN'!$I$8</c:f>
+              <c:f>'4 models comparrison'!$H$3:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.72228800000000004</c:v>
+                  <c:v>0.97850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86260000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DB10-4B0C-9415-4903AC1A0D54}"/>
+              <c16:uniqueId val="{00000000-B392-41AC-8FED-233C063F756C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 models comparrison'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test F1 (Macro) (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'4 models comparrison'!$G$3:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CRNN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GRCNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GCNN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ViT (Baseline)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 models comparrison'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B392-41AC-8FED-233C063F756C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -905,21 +1563,54 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1898634991"/>
-        <c:axId val="1898633551"/>
+        <c:axId val="1058349344"/>
+        <c:axId val="1058349824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1898634991"/>
+        <c:axId val="1058349344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1898633551"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058349824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -927,17 +1618,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1898633551"/>
+        <c:axId val="1058349824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1898634991"/>
+        <c:crossAx val="1058349344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -950,15 +1641,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.56452422483484943"/>
-          <c:y val="5.9151032901889902E-2"/>
-          <c:w val="0.41253042681304386"/>
-          <c:h val="0.31365850102070569"/>
+          <c:x val="0.55643637494031195"/>
+          <c:y val="5.7283160785457379E-2"/>
+          <c:w val="0.44064764340354901"/>
+          <c:h val="0.20882272528433948"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -974,7 +1665,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -993,589 +1684,12 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="accent4">
-        <a:lumMod val="20000"/>
-        <a:lumOff val="80000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'PlantVillage GCNN'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'PlantVillage GCNN'!$A$3:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'PlantVillage GCNN'!$D$3:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>342.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>201.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>207.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>205.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>201.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>198.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>199.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>197.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>196.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>199.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>200.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>199.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>203.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>209.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>198.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>199.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>196.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6C75-4A1C-82C1-CC7ED12E0EB0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1894649023"/>
-        <c:axId val="1894652383"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1894649023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Epochs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1894652383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1894652383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>time(s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1894649023"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1603,6 +1717,121 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Training Time (s)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Training Time (s)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{73969A62-9FE8-4032-B8DE-135BF36E05C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.4</cx:f>
+              <cx:v>Avg Time/Epoch (s)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1500" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:blipFill>
+      <a:blip r:embed="rId1"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+  </cx:spPr>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1685,6 +1914,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2189,7 +2458,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2200,7 +2469,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2213,7 +2482,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -2230,7 +2499,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2246,7 +2515,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2290,20 +2559,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2312,13 +2581,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2330,29 +2599,28 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2456,8 +2724,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2547,20 +2821,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2573,17 +2847,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2615,7 +2878,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2624,13 +2887,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2684,7 +2948,521 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2694,23 +3472,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48F4E29-07BB-7CAE-83F3-189237FC1EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0B1FAE-6984-045A-410E-43DACA13968B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,22 +3509,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2042160</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366D6669-D368-E6C1-0B2F-4025D694D5FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDE2472-A406-E8ED-B9E2-282CFF98A1C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,6 +3540,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2674620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6AEE4D-9724-021E-251D-696ADBC1A73B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3253740" y="1177290"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2823,6 +3679,115 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="46047.040182060184" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{DA24C724-6940-48C3-B642-6C7B07845973}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E27" sheet="PlantVillage CRNN"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Epoch" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Val Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.86799999999999999" maxValue="0.98" count="18">
+        <n v="0.86799999999999999"/>
+        <n v="0.91400000000000003"/>
+        <n v="0.91800000000000004"/>
+        <n v="0.92700000000000005"/>
+        <n v="0.93899999999999995"/>
+        <n v="0.94599999999999995"/>
+        <n v="0.96899999999999997"/>
+        <n v="0.96799999999999997"/>
+        <n v="0.96699999999999997"/>
+        <n v="0.96599999999999997"/>
+        <n v="0.97299999999999998"/>
+        <n v="0.97699999999999998"/>
+        <n v="0.97399999999999998"/>
+        <n v="0.97799999999999998"/>
+        <n v="0.98"/>
+        <n v="0.97"/>
+        <n v="0.97599999999999998"/>
+        <n v="0.97899999999999998"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Val F1 (Macro)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.80700000000000005" maxValue="0.97699999999999998"/>
+    </cacheField>
+    <cacheField name="Time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="180" maxValue="424.2"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="46047.041445486109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{6FB81C85-6FA4-4892-9FF1-B4FB725839CF}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E27" sheet="PlantVillage GRCNN"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Epoch" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Val Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.47570000000000001" maxValue="0.87849999999999995"/>
+    </cacheField>
+    <cacheField name="Val F1 (Macro)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.29120000000000001" maxValue="0.84499999999999997"/>
+    </cacheField>
+    <cacheField name="Time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="164.9" maxValue="349.3"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="46047.042240856485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{8098A76B-0FBC-4358-AED8-6931515FC658}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E27" sheet="PlantVillage Vit"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Epoch" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Val Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.51600000000000001" maxValue="0.77600000000000002"/>
+    </cacheField>
+    <cacheField name="Val F1 (Macro)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.38500000000000001" maxValue="0.70099999999999996"/>
+    </cacheField>
+    <cacheField name="Time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="552.6" maxValue="555.4"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
   <r>
@@ -3003,9 +3968,678 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="0.80700000000000005"/>
+    <n v="424.2"/>
+    <s v="Initial Convergence"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="0.89"/>
+    <n v="182.8"/>
+    <s v="Significant Gain"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="0.88800000000000001"/>
+    <n v="181.1"/>
+    <s v="Minor Fluctuation"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="0.89700000000000002"/>
+    <n v="182.8"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="0.91700000000000004"/>
+    <n v="181"/>
+    <s v="High Performance"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="0.93"/>
+    <n v="180"/>
+    <s v="Steady Growth"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="0.96"/>
+    <n v="180.8"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="0.95799999999999996"/>
+    <n v="180.9"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="0.95399999999999996"/>
+    <n v="181.2"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="8"/>
+    <n v="0.95599999999999996"/>
+    <n v="183.2"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="0.95599999999999996"/>
+    <n v="184.5"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="10"/>
+    <n v="0.96199999999999997"/>
+    <n v="182.8"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="11"/>
+    <n v="0.96799999999999997"/>
+    <n v="183.5"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="12"/>
+    <n v="0.96399999999999997"/>
+    <n v="183.4"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="12"/>
+    <n v="0.96499999999999997"/>
+    <n v="182.3"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="13"/>
+    <n v="0.97099999999999997"/>
+    <n v="182.7"/>
+    <s v="Approaching Peak"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="14"/>
+    <n v="0.97699999999999998"/>
+    <n v="182"/>
+    <s v="PEAK PERFORMANCE"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="11"/>
+    <n v="0.96899999999999997"/>
+    <n v="183.2"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="15"/>
+    <n v="0.95599999999999996"/>
+    <n v="182"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="16"/>
+    <n v="0.96799999999999997"/>
+    <n v="182.2"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="16"/>
+    <n v="0.96599999999999997"/>
+    <n v="182.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="17"/>
+    <n v="0.96599999999999997"/>
+    <n v="180.6"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="13"/>
+    <n v="0.97199999999999998"/>
+    <n v="181.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="17"/>
+    <n v="0.97099999999999997"/>
+    <n v="180.3"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="13"/>
+    <n v="0.96699999999999997"/>
+    <n v="180.5"/>
+    <s v="Final Result"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <n v="1"/>
+    <n v="0.47570000000000001"/>
+    <n v="0.29120000000000001"/>
+    <n v="349.3"/>
+    <s v="Initializing"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="0.58950000000000002"/>
+    <n v="0.45729999999999998"/>
+    <n v="167.8"/>
+    <s v="Rapid Learning"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="0.65449999999999997"/>
+    <n v="0.54210000000000003"/>
+    <n v="164.9"/>
+    <s v="Progressing"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="0.71989999999999998"/>
+    <n v="0.63270000000000004"/>
+    <n v="167.1"/>
+    <s v="Steady Growth"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="0.73870000000000002"/>
+    <n v="0.65159999999999996"/>
+    <n v="169.1"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="0.75270000000000004"/>
+    <n v="0.66979999999999995"/>
+    <n v="169.6"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="0.77510000000000001"/>
+    <n v="0.71040000000000003"/>
+    <n v="172.3"/>
+    <s v="Consistent"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="0.78249999999999997"/>
+    <n v="0.7177"/>
+    <n v="169"/>
+    <s v="Consistent"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="0.80089999999999995"/>
+    <n v="0.73480000000000001"/>
+    <n v="170"/>
+    <s v="Crossing 80%"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="0.8125"/>
+    <n v="0.76539999999999997"/>
+    <n v="170.8"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="0.81100000000000005"/>
+    <n v="0.76349999999999996"/>
+    <n v="167.2"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="0.82520000000000004"/>
+    <n v="0.77569999999999995"/>
+    <n v="168.3"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="0.8256"/>
+    <n v="0.78069999999999995"/>
+    <n v="166.9"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="0.83589999999999998"/>
+    <n v="0.79269999999999996"/>
+    <n v="169.7"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="0.82499999999999996"/>
+    <n v="0.77170000000000005"/>
+    <n v="170.8"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="0.85119999999999996"/>
+    <n v="0.81479999999999997"/>
+    <n v="170.4"/>
+    <s v="Crossing 85%"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="0.85709999999999997"/>
+    <n v="0.81330000000000002"/>
+    <n v="168.3"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="0.85429999999999995"/>
+    <n v="0.8135"/>
+    <n v="169.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="0.86339999999999995"/>
+    <n v="0.82530000000000003"/>
+    <n v="172.5"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="0.86"/>
+    <n v="0.81610000000000005"/>
+    <n v="173.8"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="0.85709999999999997"/>
+    <n v="0.8175"/>
+    <n v="173.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="0.87129999999999996"/>
+    <n v="0.83699999999999997"/>
+    <n v="173.4"/>
+    <s v="High Performance"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="0.86560000000000004"/>
+    <n v="0.82630000000000003"/>
+    <n v="170.6"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="0.872"/>
+    <n v="0.83640000000000003"/>
+    <n v="171.1"/>
+    <s v="High Performance"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="0.87849999999999995"/>
+    <n v="0.84499999999999997"/>
+    <n v="175.6"/>
+    <s v="Final State (Best)"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <n v="1"/>
+    <n v="0.74099999999999999"/>
+    <n v="0.64600000000000002"/>
+    <n v="552.9"/>
+    <s v="Initial Convergence"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="0.73299999999999998"/>
+    <n v="0.64700000000000002"/>
+    <n v="552.6"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="0.77300000000000002"/>
+    <n v="0.69499999999999995"/>
+    <n v="554.29999999999995"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="0.77600000000000002"/>
+    <n v="0.70099999999999996"/>
+    <n v="554.29999999999995"/>
+    <s v="Peak Performance"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="0.71499999999999997"/>
+    <n v="0.628"/>
+    <n v="555.20000000000005"/>
+    <s v="Performance Drop"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="0.69799999999999995"/>
+    <n v="0.6"/>
+    <n v="554.79999999999995"/>
+    <s v="Fluctuation"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="0.71299999999999997"/>
+    <n v="0.63400000000000001"/>
+    <n v="555"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="0.77200000000000002"/>
+    <n v="0.7"/>
+    <n v="554.6"/>
+    <s v="High Recovery"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="0.59299999999999997"/>
+    <n v="0.51300000000000001"/>
+    <n v="554.9"/>
+    <s v="Gradient Instability"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="0.754"/>
+    <n v="0.66600000000000004"/>
+    <n v="555.4"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="0.745"/>
+    <n v="0.67600000000000005"/>
+    <n v="554.70000000000005"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="0.66400000000000003"/>
+    <n v="0.55800000000000005"/>
+    <n v="555"/>
+    <s v="Drop"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="0.76300000000000001"/>
+    <n v="0.68400000000000005"/>
+    <n v="555.29999999999995"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="0.751"/>
+    <n v="0.66900000000000004"/>
+    <n v="554.4"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="0.65300000000000002"/>
+    <n v="0.54400000000000004"/>
+    <n v="553.6"/>
+    <s v="Drop"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="0.57699999999999996"/>
+    <n v="0.45300000000000001"/>
+    <n v="553.9"/>
+    <s v="Significant Drop"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="0.65"/>
+    <n v="0.54100000000000004"/>
+    <n v="553.6"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="0.71599999999999997"/>
+    <n v="0.63600000000000001"/>
+    <n v="553.6"/>
+    <s v="Improving"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="0.71"/>
+    <n v="0.623"/>
+    <n v="554.1"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="0.64900000000000002"/>
+    <n v="0.53300000000000003"/>
+    <n v="554.1"/>
+    <s v="Drop"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="0.51600000000000001"/>
+    <n v="0.38500000000000001"/>
+    <n v="553.5"/>
+    <s v="Lowest Point"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="0.65100000000000002"/>
+    <n v="0.52800000000000002"/>
+    <n v="553.79999999999995"/>
+    <s v="Recovering"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="0.63600000000000001"/>
+    <n v="0.52400000000000002"/>
+    <n v="552.9"/>
+    <s v="Stable"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="0.60099999999999998"/>
+    <n v="0.48699999999999999"/>
+    <n v="553"/>
+    <s v="Drop"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="0.76800000000000002"/>
+    <n v="0.67600000000000005"/>
+    <n v="553"/>
+    <s v="Final Recovery"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15CC8162-1B8F-49A5-A20D-F2C3A9ADEA7C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="H7:I8" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D26BB3A-E8F4-4F2F-A1D2-7F87452912AA}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G9:I10" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Val Accuracy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Val F1 (Macro)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Time (s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475EE6FC-51BA-43EA-920F-C52EE0F4D1A6}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H8:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Val Accuracy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Val F1 (Macro)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average Time /epoch" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15CC8162-1B8F-49A5-A20D-F2C3A9ADEA7C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="H7:J8" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="26">
@@ -3039,7 +4673,7 @@
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
@@ -3048,29 +4682,33 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i i="1">
       <x v="1"/>
     </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Average of Val Accuracy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Average of Val F1 (Macro)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average Time /epoch" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3081,26 +4719,50 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8094396-F935-4F78-9DE1-222E6D21D53F}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H8:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Val Accuracy" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Val F1 (Macro)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average Time /epoch" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3409,10 +5071,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3486,11 +5148,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3978,7 +5640,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G4" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3988,25 +5650,26 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="54.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4156,6 +5819,11 @@
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -4173,6 +5841,15 @@
       <c r="E9" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -4190,6 +5867,15 @@
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="G10" s="8">
+        <v>0.69272</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.59787999999999997</v>
+      </c>
+      <c r="I10" s="8">
+        <v>554.1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -4481,9 +6167,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C27">
     <cfRule type="iconSet" priority="1">
@@ -4495,8 +6182,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -4535,35 +6222,37 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H1" sqref="H1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="37.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4693,6 +6382,11 @@
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -4710,6 +6404,15 @@
       <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -4727,6 +6430,15 @@
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H9" s="9">
+        <v>0.96072000000000002</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="J9" s="9">
+        <v>191.64800000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -5035,9 +6747,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C27">
     <cfRule type="iconSet" priority="5">
@@ -5049,8 +6762,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5110,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2C2D19-E9A5-470E-95D0-484182693731}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5129,18 +6842,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5254,6 +6967,11 @@
       <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -5277,7 +6995,9 @@
       <c r="I7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J7"/>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -5295,13 +7015,15 @@
       <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.79194399999999998</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.72228800000000004</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" s="6">
+        <v>206.28000000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -5627,9 +7349,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C27">
     <cfRule type="iconSet" priority="5">
@@ -5641,11 +7364,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5701,24 +7423,803 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE9859A-4B85-4EE8-83C5-75878261B779}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.47570000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>349.3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>167.8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>164.9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.63270000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>167.1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="D7" s="1">
+        <v>169.1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="D8" s="1">
+        <v>169.6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>172.3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.79420800000000003</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="J9" s="8">
+        <v>177.22800000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.7177</v>
+      </c>
+      <c r="D10" s="1">
+        <v>169</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.80089999999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>170</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.8125</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>170.8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>167.2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>168.3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.8256</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.78069999999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>166.9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="D16" s="1">
+        <v>169.7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>170.8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>170.4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>168.3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.8135</v>
+      </c>
+      <c r="D20" s="1">
+        <v>169.1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>172.5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.81610000000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>173.8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.8175</v>
+      </c>
+      <c r="D23" s="1">
+        <v>173.1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.87129999999999996</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>173.4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>170.6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>171.1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D27" s="1">
+        <v>175.6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:C26">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E26">
+    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{39AA4511-89A4-4A6F-85B1-FCDCF89C75B9}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>A2:A26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{18BA47FD-8EAE-48A9-B342-CA5851743CF0}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>D2:D26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238A6EA4-E7AC-4C6F-9608-68BAFA5BEDB2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.69269999999999998</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.59789999999999999</v>
+      </c>
+      <c r="D3">
+        <v>554.1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.9607</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="D4">
+        <v>191.65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D5">
+        <v>206.28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.73209999999999997</v>
+      </c>
+      <c r="D6">
+        <v>177.23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.68940000000000001</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ML Project\2 weeks project ML\Automated Phyto-Pathology Diagnostics\Automated-Phyto-Pathology-Diagnostics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69C20B0-278A-4285-83F5-2EE46C6E2D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40B74B-5BAD-4623-9721-EE035631DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,13 @@
     <definedName name="_xlchart.v2.0" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">'4 models comparrison'!$D$2</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">'4 models comparrison'!$D$3:$D$6</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'4 models comparrison'!$A$3:$A$6</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'4 models comparrison'!$D$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'4 models comparrison'!$D$3:$D$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="4" r:id="rId9"/>
-    <pivotCache cacheId="7" r:id="rId10"/>
-    <pivotCache cacheId="10" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -531,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,15 +546,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,15 +559,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -666,6 +650,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1724,10 +1717,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v2.3</cx:f>
+        <cx:f>_xlchart.v2.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v2.5</cx:f>
+        <cx:f>_xlchart.v2.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1765,7 +1758,7 @@
         <cx:series layoutId="funnel" uniqueId="{73969A62-9FE8-4032-B8DE-135BF36E05C8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v2.4</cx:f>
+              <cx:f>_xlchart.v2.1</cx:f>
               <cx:v>Avg Time/Epoch (s)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1801,7 +1794,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
         <cx:txPr>
@@ -4509,7 +4502,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D26BB3A-E8F4-4F2F-A1D2-7F87452912AA}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D26BB3A-E8F4-4F2F-A1D2-7F87452912AA}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G9:I10" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4553,7 +4546,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475EE6FC-51BA-43EA-920F-C52EE0F4D1A6}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{475EE6FC-51BA-43EA-920F-C52EE0F4D1A6}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4607,13 +4600,13 @@
     <dataField name="Average Time /epoch" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4699,16 +4692,16 @@
     <dataField name="Average Time /epoch" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="14">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="10">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -4732,7 +4725,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8094396-F935-4F78-9DE1-222E6D21D53F}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8094396-F935-4F78-9DE1-222E6D21D53F}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H8:J9" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5071,10 +5064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5148,11 +5141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -5657,18 +5650,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5819,11 +5812,11 @@
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -5867,13 +5860,13 @@
       <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>0.69272</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10">
         <v>0.59787999999999997</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>554.1</v>
       </c>
     </row>
@@ -6182,8 +6175,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="10" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6240,18 +6233,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6382,11 +6375,11 @@
       <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -6430,13 +6423,13 @@
       <c r="E9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="1">
         <v>0.96072000000000002</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="1">
         <v>0.94620000000000004</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="1">
         <v>191.64800000000002</v>
       </c>
     </row>
@@ -6762,8 +6755,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6842,18 +6835,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6967,11 +6960,11 @@
       <c r="E6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -7364,8 +7357,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E27">
-    <cfRule type="uniqueValues" dxfId="6" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7442,18 +7435,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7583,11 +7576,11 @@
       <c r="E7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -7631,13 +7624,13 @@
       <c r="E9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <v>0.79420800000000003</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>0.73209999999999997</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9">
         <v>177.22800000000004</v>
       </c>
     </row>
@@ -7963,8 +7956,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E26">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -8041,18 +8034,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8084,10 +8077,10 @@
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>0.69269999999999998</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>0.59789999999999999</v>
       </c>
       <c r="D3">
@@ -8096,10 +8089,10 @@
       <c r="G3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>0.97850000000000004</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>0.97219999999999995</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -8110,10 +8103,10 @@
       <c r="A4" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>0.9607</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>0.94620000000000004</v>
       </c>
       <c r="D4">
@@ -8122,10 +8115,10 @@
       <c r="G4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>0.87770000000000004</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>0.83709999999999996</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -8136,10 +8129,10 @@
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>0.79200000000000004</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>0.72199999999999998</v>
       </c>
       <c r="D5">
@@ -8148,10 +8141,10 @@
       <c r="G5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>0.86260000000000003</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>0.81279999999999997</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -8162,10 +8155,10 @@
       <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>0.79420000000000002</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>0.73209999999999997</v>
       </c>
       <c r="D6">
@@ -8174,10 +8167,10 @@
       <c r="G6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>0.77200000000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>0.68940000000000001</v>
       </c>
       <c r="J6" s="1" t="s">
